--- a/直播源.xlsx
+++ b/直播源.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\影视仓直播源\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98DC30B9-2BA3-4A88-9489-ADC939915704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF597433-E853-4A19-8438-C260BED954ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="155">
   <si>
     <t>https://www.goodiptv.club/douyu/</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -484,6 +484,38 @@
   </si>
   <si>
     <t>https://www.goodiptv.club/douyu/431460</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斗鱼1377142</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.goodiptv.club/douyu/1377142</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斗鱼74374</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.goodiptv.club/douyu/74374</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.goodiptv.club/douyu/7254536</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斗鱼7254536</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斗鱼3811092</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.goodiptv.club/douyu/3811092</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -536,11 +568,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -879,17 +912,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B5D5437-55F2-45E1-8C9A-52259253B045}">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.33203125" customWidth="1"/>
     <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.21875" customWidth="1"/>
+    <col min="3" max="3" width="36.21875" style="2" customWidth="1"/>
     <col min="4" max="4" width="37.21875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -898,7 +931,7 @@
       <c r="B1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -918,7 +951,7 @@
       <c r="B2">
         <v>122402</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E2" t="str">
@@ -933,11 +966,11 @@
       <c r="B3">
         <v>85894</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E43" si="0">_xlfn.CONCAT(A3,$F$1,C3)</f>
+        <f t="shared" ref="E3:E40" si="0">_xlfn.CONCAT(A3,$F$1,C3)</f>
         <v>斗鱼电影85894,https://www.goodiptv.club/douyu/85894</v>
       </c>
     </row>
@@ -948,7 +981,7 @@
       <c r="B4">
         <v>20415</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E4" t="str">
@@ -963,7 +996,7 @@
       <c r="B5">
         <v>2793084</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>44</v>
       </c>
       <c r="E5" t="str">
@@ -978,7 +1011,7 @@
       <c r="B6">
         <v>310926</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E6" t="str">
@@ -993,7 +1026,7 @@
       <c r="B7">
         <v>252802</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E7" t="str">
@@ -1008,7 +1041,7 @@
       <c r="B8">
         <v>96577</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>47</v>
       </c>
       <c r="E8" t="str">
@@ -1018,473 +1051,497 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="B9">
-        <v>338759</v>
-      </c>
-      <c r="C9" t="s">
-        <v>48</v>
+        <v>36337</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="E9" t="str">
-        <f t="shared" si="0"/>
-        <v>斗鱼338759,https://www.goodiptv.club/douyu/338759</v>
+        <f>_xlfn.CONCAT(A9,$F$1,C9)</f>
+        <v>斗鱼36337,https://www.goodiptv.club/douyu/36337</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>11</v>
+        <v>145</v>
       </c>
       <c r="B10">
-        <v>6140589</v>
-      </c>
-      <c r="C10" t="s">
-        <v>49</v>
+        <v>431460</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="E10" t="str">
-        <f t="shared" si="0"/>
-        <v>斗鱼6140589-漫威影片,https://www.goodiptv.club/douyu/6140589</v>
+        <f>_xlfn.CONCAT(A10,$F$1,C10)</f>
+        <v>斗鱼431460,https://www.goodiptv.club/douyu/431460</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>12</v>
+        <v>147</v>
       </c>
       <c r="B11">
-        <v>8770422</v>
-      </c>
-      <c r="C11" t="s">
-        <v>50</v>
+        <v>1377142</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>148</v>
       </c>
       <c r="E11" t="str">
-        <f t="shared" si="0"/>
-        <v>斗鱼8770422-豆瓣高分,https://www.goodiptv.club/douyu/8770422</v>
+        <f>_xlfn.CONCAT(A11,$F$1,C11)</f>
+        <v>斗鱼1377142,https://www.goodiptv.club/douyu/1377142</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>13</v>
+        <v>149</v>
       </c>
       <c r="B12">
-        <v>1165374</v>
-      </c>
-      <c r="C12" t="s">
-        <v>51</v>
+        <v>74374</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="E12" t="str">
-        <f t="shared" si="0"/>
-        <v>斗鱼-恐怖经典1165374,https://www.goodiptv.club/douyu/1165374</v>
+        <f>_xlfn.CONCAT(A12,$F$1,C12)</f>
+        <v>斗鱼74374,https://www.goodiptv.club/douyu/74374</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>14</v>
+        <v>152</v>
       </c>
       <c r="B13">
-        <v>2935323</v>
-      </c>
-      <c r="C13" t="s">
-        <v>52</v>
+        <v>7254536</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="E13" t="str">
-        <f t="shared" si="0"/>
-        <v>斗鱼2935323,https://www.goodiptv.club/douyu/2935323</v>
+        <f>_xlfn.CONCAT(A13,$F$1,C13)</f>
+        <v>斗鱼7254536,https://www.goodiptv.club/douyu/7254536</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>15</v>
+        <v>153</v>
       </c>
       <c r="B14">
-        <v>434971</v>
-      </c>
-      <c r="C14" t="s">
-        <v>53</v>
+        <v>3811092</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="E14" t="str">
-        <f t="shared" si="0"/>
-        <v>斗鱼434971,https://www.goodiptv.club/douyu/434971</v>
+        <f>_xlfn.CONCAT(A14,$F$1,C14)</f>
+        <v>斗鱼3811092,https://www.goodiptv.club/douyu/3811092</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B15">
-        <v>11553944</v>
-      </c>
-      <c r="C15" t="s">
-        <v>54</v>
+        <v>338759</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" si="0"/>
-        <v>斗鱼11553944,https://www.goodiptv.club/douyu/11553944</v>
+        <v>斗鱼338759,https://www.goodiptv.club/douyu/338759</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B16">
-        <v>508118</v>
-      </c>
-      <c r="C16" t="s">
-        <v>55</v>
+        <v>6140589</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="0"/>
-        <v>斗鱼508118,https://www.goodiptv.club/douyu/508118</v>
+        <v>斗鱼6140589-漫威影片,https://www.goodiptv.club/douyu/6140589</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B17">
-        <v>9470198</v>
-      </c>
-      <c r="C17" t="s">
-        <v>56</v>
+        <v>8770422</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" si="0"/>
-        <v>斗鱼9470198,https://www.goodiptv.club/douyu/9470198</v>
+        <v>斗鱼8770422-豆瓣高分,https://www.goodiptv.club/douyu/8770422</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B18">
-        <v>3627728</v>
-      </c>
-      <c r="C18" t="s">
-        <v>57</v>
+        <v>52787</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="E18" t="str">
-        <f t="shared" si="0"/>
-        <v>斗鱼3627728,https://www.goodiptv.club/douyu/3627728</v>
+        <f>_xlfn.CONCAT(A18,$F$1,C18)</f>
+        <v>斗鱼52787-豆瓣高分2,https://www.goodiptv.club/douyu/52787</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B19">
-        <v>7882691</v>
-      </c>
-      <c r="C19" t="s">
-        <v>58</v>
+        <v>9249162</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="E19" t="str">
-        <f t="shared" si="0"/>
-        <v>斗鱼7882691,https://www.goodiptv.club/douyu/7882691</v>
+        <f>_xlfn.CONCAT(A19,$F$1,C19)</f>
+        <v>斗鱼9249162,https://www.goodiptv.club/douyu/9249162</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B20">
-        <v>263824</v>
-      </c>
-      <c r="C20" t="s">
-        <v>59</v>
+        <v>4505431</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="E20" t="str">
-        <f t="shared" si="0"/>
-        <v>斗鱼263824,https://www.goodiptv.club/douyu/263824</v>
+        <f>_xlfn.CONCAT(A20,$F$1,C20)</f>
+        <v>斗鱼4505431,https://www.goodiptv.club/douyu/4505431</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B21">
-        <v>4549169</v>
-      </c>
-      <c r="C21" t="s">
-        <v>60</v>
+        <v>11963794</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="E21" t="str">
-        <f t="shared" si="0"/>
-        <v>斗鱼4549169,https://www.goodiptv.club/douyu/4549169</v>
+        <f>_xlfn.CONCAT(A21,$F$1,C21)</f>
+        <v>斗鱼11963794,https://www.goodiptv.club/douyu/11963794</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B22">
-        <v>9651304</v>
-      </c>
-      <c r="C22" t="s">
-        <v>61</v>
+        <v>1165374</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="E22" t="str">
         <f t="shared" si="0"/>
-        <v>斗鱼9651304,https://www.goodiptv.club/douyu/9651304</v>
+        <v>斗鱼-恐怖经典1165374,https://www.goodiptv.club/douyu/1165374</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B23">
-        <v>4246519</v>
-      </c>
-      <c r="C23" t="s">
-        <v>62</v>
+        <v>2935323</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="E23" t="str">
         <f t="shared" si="0"/>
-        <v>斗鱼4246519,https://www.goodiptv.club/douyu/4246519</v>
+        <v>斗鱼2935323,https://www.goodiptv.club/douyu/2935323</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B24">
-        <v>5033502</v>
-      </c>
-      <c r="C24" t="s">
-        <v>63</v>
+        <v>434971</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="E24" t="str">
         <f t="shared" si="0"/>
-        <v>斗鱼5033502,https://www.goodiptv.club/douyu/5033502</v>
+        <v>斗鱼434971,https://www.goodiptv.club/douyu/434971</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B25">
-        <v>55223351</v>
-      </c>
-      <c r="C25" t="s">
-        <v>64</v>
+        <v>11553944</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" si="0"/>
-        <v>斗鱼5522351,https://www.goodiptv.club/douyu/55223351</v>
+        <v>斗鱼11553944,https://www.goodiptv.club/douyu/11553944</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B26">
-        <v>2838296</v>
-      </c>
-      <c r="C26" t="s">
-        <v>65</v>
+        <v>508118</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" si="0"/>
-        <v>斗鱼2838296电视剧HD1,https://www.goodiptv.club/douyu/2838296</v>
+        <v>斗鱼508118,https://www.goodiptv.club/douyu/508118</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B27">
-        <v>4332</v>
-      </c>
-      <c r="C27" t="s">
-        <v>66</v>
+        <v>9470198</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="E27" t="str">
         <f t="shared" si="0"/>
-        <v>斗鱼4332科幻动作,https://www.goodiptv.club/douyu/4332</v>
+        <v>斗鱼9470198,https://www.goodiptv.club/douyu/9470198</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B28">
-        <v>1735337</v>
-      </c>
-      <c r="C28" t="s">
-        <v>67</v>
+        <v>3627728</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="E28" t="str">
         <f t="shared" si="0"/>
-        <v>斗鱼1735337高分影视,https://www.goodiptv.club/douyu/1735337</v>
+        <v>斗鱼3627728,https://www.goodiptv.club/douyu/3627728</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B29">
-        <v>6566671</v>
-      </c>
-      <c r="C29" t="s">
-        <v>68</v>
+        <v>7882691</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="E29" t="str">
         <f t="shared" si="0"/>
-        <v>粤语电影6566671,https://www.goodiptv.club/douyu/6566671</v>
+        <v>斗鱼7882691,https://www.goodiptv.club/douyu/7882691</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B30">
-        <v>2436390</v>
-      </c>
-      <c r="C30" t="s">
-        <v>69</v>
+        <v>263824</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="E30" t="str">
         <f t="shared" si="0"/>
-        <v>译制国语2436390,https://www.goodiptv.club/douyu/2436390</v>
+        <v>斗鱼263824,https://www.goodiptv.club/douyu/263824</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B31">
-        <v>363778</v>
-      </c>
-      <c r="C31" t="s">
-        <v>70</v>
+        <v>4549169</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="E31" t="str">
         <f t="shared" si="0"/>
-        <v>特辑影院-斗鱼3637778,https://www.goodiptv.club/douyu/363778</v>
+        <v>斗鱼4549169,https://www.goodiptv.club/douyu/4549169</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B32">
-        <v>52787</v>
-      </c>
-      <c r="C32" t="s">
-        <v>71</v>
+        <v>9651304</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="E32" t="str">
         <f t="shared" si="0"/>
-        <v>斗鱼52787-豆瓣高分2,https://www.goodiptv.club/douyu/52787</v>
+        <v>斗鱼9651304,https://www.goodiptv.club/douyu/9651304</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B33">
-        <v>9249162</v>
-      </c>
-      <c r="C33" t="s">
-        <v>72</v>
+        <v>4246519</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="E33" t="str">
         <f t="shared" si="0"/>
-        <v>斗鱼9249162,https://www.goodiptv.club/douyu/9249162</v>
+        <v>斗鱼4246519,https://www.goodiptv.club/douyu/4246519</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B34">
-        <v>4505431</v>
-      </c>
-      <c r="C34" t="s">
-        <v>73</v>
+        <v>5033502</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="E34" t="str">
         <f t="shared" si="0"/>
-        <v>斗鱼4505431,https://www.goodiptv.club/douyu/4505431</v>
+        <v>斗鱼5033502,https://www.goodiptv.club/douyu/5033502</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B35">
-        <v>11963794</v>
-      </c>
-      <c r="C35" t="s">
-        <v>74</v>
+        <v>55223351</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="E35" t="str">
         <f t="shared" si="0"/>
-        <v>斗鱼11963794,https://www.goodiptv.club/douyu/11963794</v>
+        <v>斗鱼5522351,https://www.goodiptv.club/douyu/55223351</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B36">
-        <v>36337</v>
-      </c>
-      <c r="C36" t="s">
-        <v>75</v>
+        <v>4332</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="E36" t="str">
         <f t="shared" si="0"/>
-        <v>斗鱼36337,https://www.goodiptv.club/douyu/36337</v>
+        <v>斗鱼4332科幻动作,https://www.goodiptv.club/douyu/4332</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>145</v>
+        <v>29</v>
       </c>
       <c r="B37">
-        <v>431460</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>146</v>
+        <v>1735337</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="E37" t="str">
         <f t="shared" si="0"/>
-        <v>斗鱼431460,https://www.goodiptv.club/douyu/431460</v>
+        <v>斗鱼1735337高分影视,https://www.goodiptv.club/douyu/1735337</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38">
+        <v>6566671</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="E38" t="str">
         <f t="shared" si="0"/>
-        <v>,</v>
+        <v>粤语电影6566671,https://www.goodiptv.club/douyu/6566671</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <v>2436390</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="E39" t="str">
         <f t="shared" si="0"/>
-        <v>,</v>
+        <v>译制国语2436390,https://www.goodiptv.club/douyu/2436390</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40">
+        <v>363778</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="E40" t="str">
         <f t="shared" si="0"/>
-        <v>,</v>
+        <v>特辑影院-斗鱼3637778,https://www.goodiptv.club/douyu/363778</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41">
+        <v>2838296</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="E41" t="str">
-        <f t="shared" si="0"/>
-        <v>,</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E42" t="str">
-        <f t="shared" si="0"/>
-        <v>,</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E43" t="str">
-        <f t="shared" si="0"/>
-        <v>,</v>
+        <f>_xlfn.CONCAT(A41,$F$1,C41)</f>
+        <v>斗鱼2838296电视剧HD1,https://www.goodiptv.club/douyu/2838296</v>
       </c>
     </row>
   </sheetData>
